--- a/Fase2_ML_Schedulling_Optimization/Costes_promedio_R11.xlsx
+++ b/Fase2_ML_Schedulling_Optimization/Costes_promedio_R11.xlsx
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Costes Promedio HipótesisR1231</t>
+          <t>Costes Promedio Hipótesis R11</t>
         </is>
       </c>
     </row>
